--- a/idis/expdata/10056.xlsx
+++ b/idis/expdata/10056.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justin hink\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{327A0F04-9E09-43A9-8D71-FE9386F71DAD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{42E2FE5F-8EF3-8E42-BD0F-4ED28961973B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2502" yWindow="2502" windowWidth="8910" windowHeight="8994" xr2:uid="{2B557C62-646E-44AD-BD5B-F52B5FB30D83}"/>
+    <workbookView xWindow="30720" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{2B557C62-646E-44AD-BD5B-F52B5FB30D83}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>col</t>
   </si>
@@ -52,15 +52,6 @@
   </si>
   <si>
     <t>syst_u</t>
-  </si>
-  <si>
-    <t>3.1*10^(-6)</t>
-  </si>
-  <si>
-    <t>6.4*10^(-6)</t>
-  </si>
-  <si>
-    <t>3.0*10^(-6)</t>
   </si>
   <si>
     <t>d</t>
@@ -445,15 +436,17 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="10.68359375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -461,13 +454,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -476,13 +469,13 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -497,13 +490,13 @@
         <v>1.085</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="s">
-        <v>8</v>
+      <c r="F2">
+        <v>3.1E-6</v>
+      </c>
+      <c r="G2">
+        <v>3.0000000000000001E-6</v>
       </c>
       <c r="H2">
         <v>0.24099999999999999</v>
@@ -513,7 +506,7 @@
         <v>0.39673644305257955</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -528,13 +521,13 @@
         <v>1.901</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" t="s">
         <v>6</v>
+      </c>
+      <c r="F3">
+        <v>6.3999999999999997E-6</v>
+      </c>
+      <c r="G3">
+        <v>3.1E-6</v>
       </c>
       <c r="H3">
         <v>0.29499999999999998</v>
